--- a/Design_Docs/AIDCORE - Feature Explanation.xlsx
+++ b/Design_Docs/AIDCORE - Feature Explanation.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/jyotirmoy_patra_spglobal_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quicktech/Documents/IISc_AIMLOps_Projects/IISc_Capstone_Project/capstone_aidcore_g7/capstone_AIDCORE_g7/Design_Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{DD616006-AFB5-4148-B0E1-24C8BCD4665F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{564E48AB-0C77-4A98-8734-2BAB44193CDA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9328CB-E719-F243-87B4-CC00197027F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{145E3237-5853-4E6C-92A3-05B0590ADACB}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="51120" windowHeight="28300" activeTab="1" xr2:uid="{145E3237-5853-4E6C-92A3-05B0590ADACB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Description" sheetId="1" r:id="rId1"/>
+    <sheet name="Description for MVP" sheetId="1" r:id="rId1"/>
     <sheet name="Flowchart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,6 +36,50 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>QuickTech</author>
+  </authors>
+  <commentList>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{C7EF138D-48C3-4D4B-9C7A-B8D1F37589FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Introducing our Intelligent Review System, a cutting-edge platform designed to offer dynamic options tailored to each product and informed by previous customer feedback. By leveraging advanced algorithms, this system provides personalized recommendations to users, guiding them towards informed actions based on their preferences and the characteristics of the product in question. Experience a smarter way to engage with reviews and make informed decisions with our Intelligent Review System.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Refer zomato example.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
@@ -157,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,21 +210,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,25 +270,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,10 +345,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>25110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -270,7 +379,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14630400" cy="10839450"/>
+          <a:ext cx="20904200" cy="14503110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,133 +697,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4CF3B2-D4EA-4115-9EB3-F0C373F01C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4CF3B2-D4EA-4115-9EB3-F0C373F01C90}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="252.6328125" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="252.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="92" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1" t="s">
+    <row r="3" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="173" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="127" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+    <row r="10" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -732,6 +877,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -739,9 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D399A229-9639-41DA-BD53-F9C6C3B98A30}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
